--- a/4 - cadastrar_GUI_Pandas/arquivo.xlsx
+++ b/4 - cadastrar_GUI_Pandas/arquivo.xlsx
@@ -496,12 +496,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos</t>
+          <t>Marco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
